--- a/Project Management/VY3-G01 - Template-Project Plan V3.xlsx
+++ b/Project Management/VY3-G01 - Template-Project Plan V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material\Advanced Sofware Engineering\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A6825-CEB7-43E8-A32A-A85FB0C5C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145F816-B2F0-4872-B25D-E4E57838BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="184">
   <si>
     <t>Task</t>
   </si>
@@ -268,36 +268,15 @@
     <t>SPRINT 1 (BASIC VERSION - MF)</t>
   </si>
   <si>
-    <t>Partner Web</t>
-  </si>
-  <si>
     <t>Customer Web</t>
   </si>
   <si>
     <t>Admin Web</t>
   </si>
   <si>
-    <t>- Thiết kế CSDL</t>
-  </si>
-  <si>
-    <t>- Thiết kế giao diện</t>
-  </si>
-  <si>
-    <t>Lập trình</t>
-  </si>
-  <si>
     <t>SPRINT 2 (ADVANCED VERSION - MF+AF)</t>
   </si>
   <si>
-    <t>Giao diện bên thứ 3</t>
-  </si>
-  <si>
-    <t>Tài liệu phân tích thiết kế</t>
-  </si>
-  <si>
-    <t>-API (cung cấp cho các app khác : liệt kê theo từng app)</t>
-  </si>
-  <si>
     <t>SPRINT 2+: 'Tich hop he thong voi cac app khac</t>
   </si>
   <si>
@@ -307,22 +286,10 @@
     <t>SPRINT 3 (FULL VERSION)</t>
   </si>
   <si>
-    <t>Tài liệu Phân tích thiết kế</t>
-  </si>
-  <si>
-    <t>Dùng &lt;tên tool&gt;</t>
-  </si>
-  <si>
-    <t>- Usecase 1</t>
-  </si>
-  <si>
     <t>SPRINT 3+: 'Tich hop he thong voi cac app khac</t>
   </si>
   <si>
     <t>Thông qua Discord/FB messenger / zalo/skype/MS Teams/Team Viewer</t>
-  </si>
-  <si>
-    <t>Deploy len server</t>
   </si>
   <si>
     <t>- Version 1</t>
@@ -460,12 +427,6 @@
     <t>version 4.5.1</t>
   </si>
   <si>
-    <t>Cài MongoDB</t>
-  </si>
-  <si>
-    <t>MongoDB version 5.0.6</t>
-  </si>
-  <si>
     <t>Thiết kế giao diện</t>
   </si>
   <si>
@@ -475,16 +436,10 @@
     <t>link học: https://school.coders-x.com/courses/5bab88af10dac510bfa58fc1</t>
   </si>
   <si>
-    <t>Thêm, xóa, sửa profile người dùng</t>
-  </si>
-  <si>
     <t>Nguyễn Lương Ngọc Anh</t>
   </si>
   <si>
     <t>Phạm Đăng Khoa</t>
-  </si>
-  <si>
-    <t>Phan Thanh Vinh</t>
   </si>
   <si>
     <t>Mới học NodeJS, chưa áp dụng vào dự án nên chưa có nhiều kinh nghiệm</t>
@@ -593,9 +548,6 @@
     <t>Anh</t>
   </si>
   <si>
-    <t>Anh + Khoa</t>
-  </si>
-  <si>
     <t>11:00PM</t>
   </si>
   <si>
@@ -619,6 +571,78 @@
   </si>
   <si>
     <t>integration testing/functional testing</t>
+  </si>
+  <si>
+    <t>Phân tích database</t>
+  </si>
+  <si>
+    <t>Triển khai database</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Khoa + Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế Responsive </t>
+  </si>
+  <si>
+    <t>Xây dựng Server</t>
+  </si>
+  <si>
+    <t>Thực hiện method PUT, POST cho các nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Thực hiện method GET, DELETE cho các nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Tạo backup database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết + đặt tả API </t>
+  </si>
+  <si>
+    <t>app (API lấy từ app khác sang)</t>
+  </si>
+  <si>
+    <t>public API cho các app khác (Deploy)</t>
+  </si>
+  <si>
+    <t>Deploy lên server</t>
+  </si>
+  <si>
+    <t>Thiết kế chức năng thống kê doanh thu theo từng dịch vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế chức năng thống kê theo từng App </t>
+  </si>
+  <si>
+    <t>-API (cung cấp cho các app khác)</t>
+  </si>
+  <si>
+    <t>Quản lý toàn khoản</t>
+  </si>
+  <si>
+    <t>Quản lý điểm thưởng</t>
+  </si>
+  <si>
+    <t>Quản lý mã giảm giá</t>
+  </si>
+  <si>
+    <t>Quản lý giao dịch</t>
+  </si>
+  <si>
+    <t>Quản lý ưu đãi</t>
+  </si>
+  <si>
+    <t>Cài SQL Server</t>
+  </si>
+  <si>
+    <t>SQLServer 2008</t>
   </si>
 </sst>
 </file>
@@ -825,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -916,12 +940,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -981,6 +999,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,14 +1412,14 @@
         <v>40</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1406,18 +1427,18 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1432,7 +1453,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="54">
+      <c r="F4" s="52">
         <v>1</v>
       </c>
       <c r="G4" s="18"/>
@@ -1449,7 +1470,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="54">
+      <c r="F5" s="52">
         <v>1</v>
       </c>
       <c r="G5" s="18"/>
@@ -1466,7 +1487,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="54">
+      <c r="F6" s="52">
         <v>1</v>
       </c>
       <c r="G6" s="18"/>
@@ -1482,10 +1503,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>1</v>
       </c>
       <c r="G7" s="18"/>
@@ -1502,11 +1523,11 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,11 +1542,11 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="54">
+      <c r="F9" s="52">
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1540,11 +1561,11 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="54">
+      <c r="F10" s="52">
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1552,14 +1573,14 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>1</v>
       </c>
       <c r="G11" s="18"/>
@@ -1569,18 +1590,18 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1595,7 +1616,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <v>1</v>
       </c>
       <c r="G13" s="18"/>
@@ -1608,13 +1629,13 @@
         <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="18" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1625,13 +1646,13 @@
         <v>58</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="18" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1639,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>40</v>
@@ -1648,11 +1669,11 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -1667,14 +1688,14 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1682,14 +1703,14 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1697,14 +1718,14 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1712,24 +1733,24 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39">
         <v>44621</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>44640</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -1742,33 +1763,41 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1777,14 +1806,14 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>135</v>
+      <c r="B26" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1792,11 +1821,11 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1804,15 +1833,15 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>135</v>
+      <c r="B28" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1820,27 +1849,29 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="B29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>138</v>
+      <c r="B30" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1848,54 +1879,50 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39">
+        <v>44640</v>
+      </c>
+      <c r="E31" s="39">
+        <v>44660</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A32" s="60"/>
+      <c r="B32" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41">
-        <v>44640</v>
-      </c>
-      <c r="E33" s="41">
-        <v>44660</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="33" t="s">
-        <v>44</v>
+      <c r="A34" s="60"/>
+      <c r="B34" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1904,111 +1931,165 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1"/>
+      <c r="A35" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1"/>
+      <c r="A36" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="A37" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="1"/>
+      <c r="A38" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39">
+        <v>44661</v>
+      </c>
+      <c r="E43" s="39">
+        <v>44667</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2016,17 +2097,23 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="B46" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="39">
+        <v>44668</v>
+      </c>
+      <c r="E46" s="39">
+        <v>44695</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="34" t="s">
-        <v>78</v>
+      <c r="B47" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2035,22 +2122,22 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1"/>
+      <c r="B49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2058,7 +2145,9 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2067,8 +2156,12 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2076,8 +2169,12 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2085,8 +2182,12 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2094,8 +2195,12 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2103,10 +2208,12 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="1"/>
+      <c r="B55" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2114,10 +2221,12 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="1"/>
+      <c r="B56" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2126,9 +2235,11 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2136,8 +2247,12 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2145,8 +2260,12 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2154,29 +2273,37 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="B60" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39">
+        <v>44696</v>
+      </c>
+      <c r="E60" s="39">
+        <v>44702</v>
+      </c>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="1"/>
+      <c r="B61" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="A62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2185,8 +2312,8 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="34" t="s">
-        <v>49</v>
+      <c r="B63" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2196,530 +2323,117 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="41">
-        <v>44661</v>
-      </c>
-      <c r="E64" s="41">
-        <v>44667</v>
-      </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="B64" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="39">
+        <v>44634</v>
+      </c>
+      <c r="E64" s="39">
+        <v>44640</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="34" t="s">
-        <v>85</v>
+      <c r="B65" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="39">
+        <v>44653</v>
+      </c>
+      <c r="E65" s="39">
+        <v>44660</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="34"/>
+      <c r="B66" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="39">
+        <v>44688</v>
+      </c>
+      <c r="E66" s="39">
+        <v>44695</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="41">
-        <v>44668</v>
-      </c>
-      <c r="E67" s="41">
-        <v>44695</v>
-      </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="B67" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="39">
+        <v>44653</v>
+      </c>
+      <c r="E67" s="39">
+        <v>44658</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="33" t="s">
-        <v>44</v>
+      <c r="B68" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="39">
+        <v>44688</v>
+      </c>
+      <c r="E68" s="39">
+        <v>44691</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="34" t="s">
-        <v>77</v>
+      <c r="B69" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="39">
+        <v>44703</v>
+      </c>
+      <c r="E69" s="39">
+        <v>44707</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="36" t="s">
-        <v>74</v>
+      <c r="B70" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="54">
+        <v>44718</v>
+      </c>
+      <c r="E70" s="54">
+        <v>44733</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="41">
-        <v>44696</v>
-      </c>
-      <c r="E99" s="41">
-        <v>44702</v>
-      </c>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="41">
-        <v>44634</v>
-      </c>
-      <c r="E103" s="41">
-        <v>44640</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="41">
-        <v>44653</v>
-      </c>
-      <c r="E104" s="41">
-        <v>44660</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="41">
-        <v>44688</v>
-      </c>
-      <c r="E105" s="41">
-        <v>44695</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="41">
-        <v>44653</v>
-      </c>
-      <c r="E106" s="41">
-        <v>44658</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="41">
-        <v>44688</v>
-      </c>
-      <c r="E107" s="41">
-        <v>44691</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="41">
-        <v>44703</v>
-      </c>
-      <c r="E108" s="41">
-        <v>44707</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="56">
-        <v>44718</v>
-      </c>
-      <c r="E109" s="56">
-        <v>44733</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B78 A2:A109" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24 D21:D24 C25:D47 C49:D70" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>Member</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A47 A49:A70" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Task_Group</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24 D21:D24 C25:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>Member</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2790,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>31</v>
@@ -2812,7 +2526,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="78" x14ac:dyDescent="0.3">
@@ -2824,7 +2538,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>31</v>
@@ -2845,8 +2559,8 @@
       <c r="I3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="53" t="s">
-        <v>171</v>
+      <c r="J3" s="51" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
@@ -2858,7 +2572,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>31</v>
@@ -2880,7 +2594,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
@@ -2911,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
@@ -2942,7 +2656,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2950,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>33</v>
@@ -2975,7 +2689,7 @@
         <v>36</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
@@ -2983,10 +2697,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>33</v>
@@ -3008,7 +2722,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
@@ -3016,10 +2730,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>34</v>
@@ -3039,69 +2753,69 @@
         <v>37</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="57">
+      <c r="A10" s="55">
         <v>11</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="60" t="s">
+      <c r="B10" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="57">
+      <c r="F10" s="55">
         <v>4</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="59">
         <v>0.5</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="59" t="s">
-        <v>155</v>
+      <c r="J10" s="57" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
+      <c r="A11" s="55">
         <v>12</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="60" t="s">
+      <c r="B11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="57">
+      <c r="F11" s="55">
         <v>5</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="59">
         <v>0.5</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="55">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="59" t="s">
-        <v>156</v>
+      <c r="J11" s="57" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3150,75 +2864,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="D1" s="49" t="s">
-        <v>105</v>
+      <c r="D1" s="47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="25"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="63" t="s">
+      <c r="C3" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="66"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>101</v>
+      <c r="H4" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C5" s="10">
         <v>8</v>
@@ -3238,10 +2952,10 @@
       <c r="H5" s="10">
         <v>5</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="48">
         <v>8</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="48">
         <v>8</v>
       </c>
       <c r="K5" s="10">
@@ -3251,7 +2965,7 @@
     </row>
     <row r="6" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C6" s="10">
         <v>8</v>
@@ -3271,10 +2985,10 @@
       <c r="H6" s="10">
         <v>7</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="48">
         <v>8</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="48">
         <v>8</v>
       </c>
       <c r="K6" s="10">
@@ -3284,7 +2998,7 @@
     </row>
     <row r="7" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10">
         <v>5</v>
@@ -3304,10 +3018,10 @@
       <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="48">
         <v>8</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="48">
         <v>6</v>
       </c>
       <c r="K7" s="10">
@@ -3346,44 +3060,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>110</v>
+      <c r="B3" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10">
         <v>66</v>
@@ -3405,7 +3119,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B5" s="10">
         <v>66</v>
@@ -3427,7 +3141,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B6" s="10">
         <v>24</v>
@@ -3449,7 +3163,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -3471,7 +3185,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8" s="10">
         <f>SUM(E4:E7)</f>
@@ -3484,16 +3198,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="68">
+        <v>105</v>
+      </c>
+      <c r="E9" s="67">
         <v>3</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E10" s="10">
         <f>E8*E9</f>
@@ -3678,7 +3392,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3701,7 +3415,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3721,7 +3435,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3738,7 +3452,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3746,12 +3460,12 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
